--- a/medicine/Enfance/Dépression_anaclitique/Dépression_anaclitique.xlsx
+++ b/medicine/Enfance/Dépression_anaclitique/Dépression_anaclitique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9pression_anaclitique</t>
+          <t>Dépression_anaclitique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">« Dépression anaclitique » (allemand : Anlehnungsdepression, anglais : anaclitic depression), terme dû au psychiatre et psychanalyste René Spitz, désigne des troubles dépressifs chez l'enfant privé de sa mère, après avoir eu une relation normale avec elle durant au moins les six premiers mois de sa vie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9pression_anaclitique</t>
+          <t>Dépression_anaclitique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Histoire et définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les années qui suivirent la guerre, en 1945, des recherches cliniques amenèrent  René Spitz  à montrer que « la carence de soins maternels » était source de dépressions graves, qu’il fit connaître, rappelle Serge Lebovici, sous le nom de « dépression anaclitique » ou « hospitalisme », « quand la carence était liée à l’hospitalisation d’un très jeune enfant et à sa séparation avec sa mère »[1].
-D'après Jean Laplanche et Jean-Bertrand Pontalis, Spitz crée le terme de « dépression anaclitique » pour désigner des troubles évoquant ceux de la dépression chez l'adulte et « qui surviennent progressivement chez l'enfant privé de sa mère après qu'il a eu avec elle, pendant au moins les six premiers mois de sa vie, une relation normale »[2],[3].
-Pour Élisabeth Roudinesco et Michel Plon, la dépression anaclitique se distingue de l'hospitalisme, autre terme également forgé par René Spitz qui désigne par là une séparation durable de la mère et de l'enfant en raison d'un séjour prolongé de ce dernier en milieu hospitalier, et susceptible d'entraîner « des troubles profonds, parfois irréversibles et de nature psychotique »[3]. La dépression anaclitique, par contre, peut disparaitre lorsque l'enfant retrouve sa mère[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les années qui suivirent la guerre, en 1945, des recherches cliniques amenèrent  René Spitz  à montrer que « la carence de soins maternels » était source de dépressions graves, qu’il fit connaître, rappelle Serge Lebovici, sous le nom de « dépression anaclitique » ou « hospitalisme », « quand la carence était liée à l’hospitalisation d’un très jeune enfant et à sa séparation avec sa mère ».
+D'après Jean Laplanche et Jean-Bertrand Pontalis, Spitz crée le terme de « dépression anaclitique » pour désigner des troubles évoquant ceux de la dépression chez l'adulte et « qui surviennent progressivement chez l'enfant privé de sa mère après qu'il a eu avec elle, pendant au moins les six premiers mois de sa vie, une relation normale »,.
+Pour Élisabeth Roudinesco et Michel Plon, la dépression anaclitique se distingue de l'hospitalisme, autre terme également forgé par René Spitz qui désigne par là une séparation durable de la mère et de l'enfant en raison d'un séjour prolongé de ce dernier en milieu hospitalier, et susceptible d'entraîner « des troubles profonds, parfois irréversibles et de nature psychotique ». La dépression anaclitique, par contre, peut disparaitre lorsque l'enfant retrouve sa mère.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9pression_anaclitique</t>
+          <t>Dépression_anaclitique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Dépression anaclitique chez l'enfant</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une une détresse chez l'enfant qui a déjà connu un lien d'attachement (entre 6 et 12 mois) et qui, lorsqu'il est séparé de sa mère, connaît une dépression.
 Cette pathologie se manifeste par différents signes cliniques progressifs à mesure que le temps de séparation entre la mère et l'enfant augmente :
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9pression_anaclitique</t>
+          <t>Dépression_anaclitique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Par extension : notion d'« anaclitisme »</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>C'est par extrapolation du symptôme de dépendance de l'enfant envers sa mère qu'a été définie la dépression anaclitique de l'adulte : un état psychique de dépendance, le plus souvent envers une autre personne. Plus largement, on retrouve des symptômes et des ramifications communes entre dépression anaclitique et états limites, notamment chez les personnes dites « borderline » qui développent des pulsions mortifères, un comportement oscillant entre dépression et agression lorsqu'elles n’ont pas l’impression de contrôler leur objet de dépendance.
 Cette dépendance se traduit dans les faits par une soumission passive et permanente à l'objet de dépendance, qui entraîne divers traits caractéristiques pathologiques :
